--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>1109.903251391853</v>
+        <v>893.3579803450498</v>
       </c>
       <c r="R2">
-        <v>9989.129262526681</v>
+        <v>8040.221823105448</v>
       </c>
       <c r="S2">
-        <v>0.2866976197632157</v>
+        <v>0.2453358912510743</v>
       </c>
       <c r="T2">
-        <v>0.2866976197632157</v>
+        <v>0.2453358912510742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>462.470270961664</v>
+        <v>402.5980754611199</v>
       </c>
       <c r="R3">
-        <v>4162.232438654976</v>
+        <v>3623.38267915008</v>
       </c>
       <c r="S3">
-        <v>0.1194600752179864</v>
+        <v>0.1105623499563653</v>
       </c>
       <c r="T3">
-        <v>0.1194600752179864</v>
+        <v>0.1105623499563653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>38.49861142793867</v>
+        <v>83.08902990266999</v>
       </c>
       <c r="R4">
-        <v>346.487502851448</v>
+        <v>747.8012691240299</v>
       </c>
       <c r="S4">
-        <v>0.009944524666215393</v>
+        <v>0.02281808821642286</v>
       </c>
       <c r="T4">
-        <v>0.009944524666215395</v>
+        <v>0.02281808821642286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>44.61013467390666</v>
+        <v>53.92469596898999</v>
       </c>
       <c r="R5">
-        <v>401.49121206516</v>
+        <v>485.3222637209099</v>
       </c>
       <c r="S5">
-        <v>0.01152318403634457</v>
+        <v>0.01480891606395631</v>
       </c>
       <c r="T5">
-        <v>0.01152318403634457</v>
+        <v>0.01480891606395631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>36.077766739056</v>
+        <v>40.84988823102</v>
       </c>
       <c r="R6">
-        <v>324.699900651504</v>
+        <v>367.6489940791799</v>
       </c>
       <c r="S6">
-        <v>0.009319199522561005</v>
+        <v>0.01121828422330004</v>
       </c>
       <c r="T6">
-        <v>0.009319199522561007</v>
+        <v>0.01121828422330004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>1393.327001856825</v>
+        <v>1288.266094557225</v>
       </c>
       <c r="R7">
-        <v>12539.94301671143</v>
+        <v>11594.39485101502</v>
       </c>
       <c r="S7">
-        <v>0.3599084284898072</v>
+        <v>0.3537864074988881</v>
       </c>
       <c r="T7">
-        <v>0.3599084284898073</v>
+        <v>0.3537864074988881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
-        <v>580.56620275584</v>
+        <v>580.5662027558399</v>
       </c>
       <c r="R8">
-        <v>5225.095824802561</v>
+        <v>5225.09582480256</v>
       </c>
       <c r="S8">
-        <v>0.1499652769161079</v>
+        <v>0.1594363400977763</v>
       </c>
       <c r="T8">
-        <v>0.1499652769161079</v>
+        <v>0.1594363400977763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>48.329577167445</v>
+        <v>119.818462932315</v>
       </c>
       <c r="R9">
-        <v>434.966194507005</v>
+        <v>1078.366166390835</v>
       </c>
       <c r="S9">
-        <v>0.01248394823665334</v>
+        <v>0.03290480416426068</v>
       </c>
       <c r="T9">
-        <v>0.01248394823665334</v>
+        <v>0.03290480416426068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>56.001732691275</v>
+        <v>77.76206067955499</v>
       </c>
       <c r="R10">
-        <v>504.0155942214751</v>
+        <v>699.858546115995</v>
       </c>
       <c r="S10">
-        <v>0.01446573243665178</v>
+        <v>0.02135518446364596</v>
       </c>
       <c r="T10">
-        <v>0.01446573243665178</v>
+        <v>0.02135518446364596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>45.29054807361</v>
+        <v>58.90754561139</v>
       </c>
       <c r="R11">
-        <v>407.61493266249</v>
+        <v>530.1679105025099</v>
       </c>
       <c r="S11">
-        <v>0.011698940708744</v>
+        <v>0.01617731695686168</v>
       </c>
       <c r="T11">
-        <v>0.011698940708744</v>
+        <v>0.01617731695686167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.3132100799683334</v>
+        <v>3.358368833072777</v>
       </c>
       <c r="R12">
-        <v>2.818890719715</v>
+        <v>30.225319497655</v>
       </c>
       <c r="S12">
-        <v>8.090487553771906E-05</v>
+        <v>0.0009222824768336505</v>
       </c>
       <c r="T12">
-        <v>8.090487553771908E-05</v>
+        <v>0.0009222824768336503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.130507186432</v>
+        <v>1.513472604074667</v>
       </c>
       <c r="R13">
-        <v>1.174564677888</v>
+        <v>13.621253436672</v>
       </c>
       <c r="S13">
-        <v>3.371113623203434E-05</v>
+        <v>0.0004156331038329433</v>
       </c>
       <c r="T13">
-        <v>3.371113623203436E-05</v>
+        <v>0.0004156331038329433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.01086414797766667</v>
+        <v>0.3123536303863333</v>
       </c>
       <c r="R14">
-        <v>0.097777331799</v>
+        <v>2.811182673477</v>
       </c>
       <c r="S14">
-        <v>2.806303488206223E-06</v>
+        <v>8.577922622546186E-05</v>
       </c>
       <c r="T14">
-        <v>2.806303488206223E-06</v>
+        <v>8.577922622546185E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.01258879441166667</v>
+        <v>0.2027171886965556</v>
       </c>
       <c r="R15">
-        <v>0.113299149705</v>
+        <v>1.824454698269</v>
       </c>
       <c r="S15">
-        <v>3.251794594697585E-06</v>
+        <v>5.56706306486147E-05</v>
       </c>
       <c r="T15">
-        <v>3.251794594697586E-06</v>
+        <v>5.56706306486147E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.010180995678</v>
+        <v>0.1535655297068889</v>
       </c>
       <c r="R16">
-        <v>0.091628961102</v>
+        <v>1.382089767362</v>
       </c>
       <c r="S16">
-        <v>2.629839334231912E-06</v>
+        <v>4.217249627246997E-05</v>
       </c>
       <c r="T16">
-        <v>2.629839334231913E-06</v>
+        <v>4.217249627246997E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>35.75543291139333</v>
+        <v>20.84134210040666</v>
       </c>
       <c r="R17">
-        <v>321.79889620254</v>
+        <v>187.57207890366</v>
       </c>
       <c r="S17">
-        <v>0.009235937903997255</v>
+        <v>0.005723494222435797</v>
       </c>
       <c r="T17">
-        <v>0.009235937903997257</v>
+        <v>0.005723494222435795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>14.898437972992</v>
+        <v>9.392297829375998</v>
       </c>
       <c r="R18">
-        <v>134.085941756928</v>
+        <v>84.53068046438399</v>
       </c>
       <c r="S18">
-        <v>0.003848395524285843</v>
+        <v>0.002579333044045224</v>
       </c>
       <c r="T18">
-        <v>0.003848395524285844</v>
+        <v>0.002579333044045224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>1.240229286982667</v>
+        <v>1.938402001316</v>
       </c>
       <c r="R19">
-        <v>11.162063582844</v>
+        <v>17.445618011844</v>
       </c>
       <c r="S19">
-        <v>0.0003203619631645044</v>
+        <v>0.0005323281294381533</v>
       </c>
       <c r="T19">
-        <v>0.0003203619631645045</v>
+        <v>0.0005323281294381532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>1.437111455886666</v>
+        <v>1.258020928985333</v>
       </c>
       <c r="R20">
-        <v>12.93400310298</v>
+        <v>11.322188360868</v>
       </c>
       <c r="S20">
-        <v>0.0003712183320667592</v>
+        <v>0.0003454804150357656</v>
       </c>
       <c r="T20">
-        <v>0.0003712183320667594</v>
+        <v>0.0003454804150357656</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>1.162241994168</v>
+        <v>0.9529959032293333</v>
       </c>
       <c r="R21">
-        <v>10.460177947512</v>
+        <v>8.576963129064</v>
       </c>
       <c r="S21">
-        <v>0.000300217170189348</v>
+        <v>0.0002617137859865389</v>
       </c>
       <c r="T21">
-        <v>0.0003002171701893481</v>
+        <v>0.0002617137859865389</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>0.8474821505455556</v>
+        <v>1.396131880223333</v>
       </c>
       <c r="R22">
-        <v>7.627339354910001</v>
+        <v>12.56518692201</v>
       </c>
       <c r="S22">
-        <v>0.0002189119772813789</v>
+        <v>0.0003834087417077021</v>
       </c>
       <c r="T22">
-        <v>0.000218911977281379</v>
+        <v>0.000383408741707702</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.3531256434346666</v>
+        <v>0.629176679936</v>
       </c>
       <c r="R23">
-        <v>3.178130790912</v>
+        <v>5.662590119424</v>
       </c>
       <c r="S23">
-        <v>9.121541118391576E-05</v>
+        <v>0.0001727858539606606</v>
       </c>
       <c r="T23">
-        <v>9.121541118391581E-05</v>
+        <v>0.0001727858539606606</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.02939615319177778</v>
+        <v>0.129850794526</v>
       </c>
       <c r="R24">
-        <v>0.264565378726</v>
+        <v>1.168657150734</v>
       </c>
       <c r="S24">
-        <v>7.593280891563125E-06</v>
+        <v>3.565990465814374E-05</v>
       </c>
       <c r="T24">
-        <v>7.593280891563127E-06</v>
+        <v>3.565990465814374E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.03406269224111111</v>
+        <v>0.08427303368866668</v>
       </c>
       <c r="R25">
-        <v>0.30656423017</v>
+        <v>0.7584573031980001</v>
       </c>
       <c r="S25">
-        <v>8.798688332525402E-06</v>
+        <v>2.314324188435108E-05</v>
       </c>
       <c r="T25">
-        <v>8.798688332525406E-06</v>
+        <v>2.314324188435108E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.027547683372</v>
+        <v>0.06383984082266668</v>
       </c>
       <c r="R26">
-        <v>0.247929150348</v>
+        <v>0.574558567404</v>
       </c>
       <c r="S26">
-        <v>7.115805132419386E-06</v>
+        <v>1.75318344830885E-05</v>
       </c>
       <c r="T26">
-        <v>7.115805132419389E-06</v>
+        <v>1.75318344830885E-05</v>
       </c>
     </row>
   </sheetData>
